--- a/data/P20versusRestIncomeTrendsLAC.xlsx
+++ b/data/P20versusRestIncomeTrendsLAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B078349B-DC0B-4941-A3C4-B7B112060C44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC23B6E-385F-478E-8160-94B0182ABACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="23" xr2:uid="{40F7AAE8-3E27-4861-9A05-FB8A34A0F1FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="23" xr2:uid="{8A238A7A-868C-4640-AC0E-00EDED9456EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Belize" sheetId="2" r:id="rId1"/>
@@ -211,7 +211,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4054BA91-28FB-4489-8B17-8334C2A2915B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EE5F9D-8E33-470C-8789-40C2DE053BAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -269,7 +269,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84777F3-40B8-4657-8DE2-17CBCEF246DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFA5428-86D2-43E9-8C2A-DD5F01294E00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -327,7 +327,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2C1B9F-147E-4746-9A9A-0E75D28F8AD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22960494-D007-487F-A143-B4EC6D3FC88C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -385,7 +385,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC655F2-37B3-484E-8F8E-61233A63FB92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC49E15-22DD-41DB-949A-6497A7FF2980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -443,7 +443,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753E0860-7159-49D5-A3A2-B2A3525142E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70782AA3-282B-4245-8914-0614F2E44626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -501,7 +501,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807F889E-DF53-47A1-A5F1-AC44027488CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B069369-2EE8-4B94-A870-2A21BB5620FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -559,7 +559,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E718A0-693B-4844-955C-C58C95F81649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875B0D3A-7A07-4BC5-9125-9C9778D07D5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -617,7 +617,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2DC552-EF69-497F-8F8C-39B46ADAC9D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E94765F-B3EB-4682-A773-EFD5995BC4B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -675,7 +675,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCB77F7-5B71-4218-924E-524F9882D4E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939CEAB6-F46B-4C98-A435-194F553E8730}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,7 +733,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751B2177-8E43-4841-B6F0-065A460CEF36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CD45C2-35BC-4C68-BA99-E89E241CA5FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -791,7 +791,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A2E6AE-BB3C-42F7-A955-92EFD2C7D7F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E170950D-9E67-433F-9DA6-C1EACDD097FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -849,7 +849,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6B1B04-0B8C-43B8-8948-AC7B80EEBC62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A679B76D-B47C-4B1B-96CD-ADDA3C796A7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -907,7 +907,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E693F598-97A7-47EB-A172-F4484C57A21A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A836A11A-966C-4D3F-8555-BAC5E2F05230}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +965,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D7A168-1211-4AC3-889A-32AF7327E0AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A5905C-101D-41B5-A878-E8D36C98142D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1023,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F685F15-4C28-44F2-88EE-C3B65B5C96ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A8FA63-0F03-4AF1-B2FC-E64023783686}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1081,7 +1081,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45889EF2-F911-4044-9A35-7020ECD8753E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DC80F3-D2E9-4FE0-9D3E-F7D37EFFF4CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1139,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC00C741-6CC8-4971-8597-AC6497456059}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBC1CA3-5C59-48D0-90C4-627D99CF9E99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1197,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87A6149-B09A-420D-8CBF-EF78C1493164}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C13EA82-29C6-44AF-8CA5-B4B00CC7C43A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1255,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBAF5D0-1CDB-42AB-8543-0B9C42F0BB3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9726981-3341-4DF3-8D23-F00ACB5B8048}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1313,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978C3409-9F4C-44CB-B95E-1245216232ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB212DE-92C4-48F1-836F-E4D7EDE103CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1371,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63195353-7062-45C3-84DC-E60E112363B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4D0E2D-0EA0-4E50-8CE8-4E6CFCDE9911}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1429,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2739DC74-0247-4231-B092-9F1E89A456CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D265A9D-F0C0-4534-846B-9147383E5440}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3564B3B-41E9-44DF-8C2B-E07AFD930F22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99729DA2-84F3-4259-813E-14CC7A687583}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,7 +1545,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7C3419-EAF9-42C0-B5F1-4BD427664C7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328F0774-64BF-4EC8-B04D-DA078C50F659}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ADFB66-0D29-4A1F-AD0B-BEA7D97FB3BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF0D23E-7DE2-4368-B284-9A6AF4A70CC2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC37970-F109-4C92-8568-23BE628BB633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5B00A6-4D7B-48F8-A60F-CC5197C138BF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2355,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11620B2-7F15-49CA-9649-AE409E1DBB97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C3B996-3692-47D2-B239-7E1F40AB82A3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2593,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DBC6D1-1770-4486-BE6B-3E65D954B3AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BC6FFA-0D22-4A68-8D7C-7A5D0E73A35D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C3A1B4-DA4E-4E9F-89B6-7C627C0E329B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369D446C-E8AB-4133-A9DD-8E3D7F64A34D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3069,7 +3069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A9B6A-2066-4F87-862E-9F9FD2F7775A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E9A276-7823-4CFC-B76E-BBC591B09749}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3307,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCFE3C3-DB54-49B4-860E-D01ECC0A9955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB57368C-992D-4969-A964-2605670C84E4}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3545,7 +3545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C52FEF-A5A0-4C44-BA7D-E22EAB7986C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307103F3-878B-40EC-8039-765026249595}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3783,7 +3783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D52BED-F3FA-43A6-9F39-8C3EFDAA9963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AFA8EC-30DA-48B5-B927-580DF16446EB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4021,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42CDAF4-DDCD-489A-ADB1-57C3DA971429}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC018F7E-F7AD-4E95-8E62-E03D32864A9B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4259,7 +4259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4656478-F37A-4BA2-B641-8B8C510CDC32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B104A3B-89E5-4F8D-BB78-B5391884F37F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4497,7 +4497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DE475-6E69-471D-978A-E7C22F55F7C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D6D487-C12E-4F9C-8248-FBF376A99E0B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4729,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C956FA6-FD9A-4446-949A-6F0B154E8A80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8472DC8B-BFC5-4B75-A352-11D6C8AD6CD0}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4967,7 +4967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA8886-1359-4965-A52F-15B2152F3CE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD297325-E070-40E9-A758-171A71F75AC1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5187,7 +5187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAE93EC-7B3B-4FC4-92CF-A01B656265DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0987DE-D9D6-4571-A7C5-C38B04827691}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5419,7 +5419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212B7220-5FA9-4000-92EA-9DEB83D2BA30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D821F431-D727-42F1-8F62-3840B5D667B1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5645,7 +5645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD48E300-9654-4550-ABE2-377D91940EAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F95F3-ACA3-45CC-9746-DA1FDE7BAA0C}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5813,7 +5813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46A6FC-60B6-4DB5-95B2-F53DFE0181E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29D9DB-DD7A-44F3-AD66-5A47D588A4E8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6051,7 +6051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC0D731-AD14-4BF4-942C-C2DE22BDB779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EDBB12-D7D7-4B7B-BC04-83F4A500D37C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6289,7 +6289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190F5194-19B2-419D-9312-801BF73FF0E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E6D71A-296D-4EE1-80E5-5CC092C06970}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6527,7 +6527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ADE0AE-0268-4A78-AED6-61C93DD55F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FE1F94-DA84-4F9F-8B39-ED916EF21139}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6765,7 +6765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B5535D-9EBC-447E-B59E-745C915FC713}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BFC0E2-DF5C-4359-BBE7-22DE91DB382E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7003,7 +7003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3A7BC8-19AF-4311-BBC6-E89786A52254}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7EFFC0-4F56-443E-AAFB-F647AA27D701}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7241,7 +7241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88076C2-38F2-4C5D-BB0C-EBE1EC2B85DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F49A07-F9E8-4ABD-B6E5-E59AD73912B8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/P20versusRestIncomeTrendsLAC.xlsx
+++ b/data/P20versusRestIncomeTrendsLAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC23B6E-385F-478E-8160-94B0182ABACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C654F13-C8BB-434F-AEB6-69DC2AED6493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="23" xr2:uid="{8A238A7A-868C-4640-AC0E-00EDED9456EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="23" xr2:uid="{D585A2A5-8E7A-4F3F-BBD2-0953C0C7BBEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Belize" sheetId="2" r:id="rId1"/>
@@ -211,7 +211,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EE5F9D-8E33-470C-8789-40C2DE053BAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5FE96F-AEAD-47B6-A798-57EAF295E9EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -269,7 +269,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFA5428-86D2-43E9-8C2A-DD5F01294E00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74ED938-D84D-49E3-A1AF-B5921E16046B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -327,7 +327,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22960494-D007-487F-A143-B4EC6D3FC88C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BA2149-6832-41B2-B747-4B99A434B400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -385,7 +385,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC49E15-22DD-41DB-949A-6497A7FF2980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B111D05-06A4-4746-97AA-1BF998E993ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -443,7 +443,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70782AA3-282B-4245-8914-0614F2E44626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F989D2-C2E9-4392-8ADE-564E5B2DD2CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -501,7 +501,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B069369-2EE8-4B94-A870-2A21BB5620FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CCB3EF-9F49-4B2A-8F03-E439D506BD33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -559,7 +559,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875B0D3A-7A07-4BC5-9125-9C9778D07D5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A1F951-1EBB-48C6-BCEB-1AFC90C9DB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -617,7 +617,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E94765F-B3EB-4682-A773-EFD5995BC4B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D3E1CB-0136-48C9-84CF-3327AA5046F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -675,7 +675,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939CEAB6-F46B-4C98-A435-194F553E8730}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CBFE47-070E-4031-BC13-83CFB563926F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,7 +733,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CD45C2-35BC-4C68-BA99-E89E241CA5FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28666FA7-503E-40DF-998F-F573C25EE69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -791,7 +791,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E170950D-9E67-433F-9DA6-C1EACDD097FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7026F6A1-0633-430D-B2CF-CECD35BAAF07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -849,7 +849,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A679B76D-B47C-4B1B-96CD-ADDA3C796A7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275C44E0-60B4-4BC4-B5DE-DDE376851F4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -907,7 +907,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A836A11A-966C-4D3F-8555-BAC5E2F05230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA44F776-D94C-4C32-BA45-1D91610E663E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +965,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A5905C-101D-41B5-A878-E8D36C98142D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B75742-8EF2-4BD6-A078-E9EE75906AE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1023,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A8FA63-0F03-4AF1-B2FC-E64023783686}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B67D93-7FBF-4B0F-A382-56E3116AA6EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1081,7 +1081,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DC80F3-D2E9-4FE0-9D3E-F7D37EFFF4CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2AEA90F-B99B-4D50-B257-A3F4C8ED3BB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1139,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBC1CA3-5C59-48D0-90C4-627D99CF9E99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F70A11F-675A-427D-BBAC-9F120409DA10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1197,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C13EA82-29C6-44AF-8CA5-B4B00CC7C43A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC519343-DC55-493E-A89E-5521AB0806E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1255,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9726981-3341-4DF3-8D23-F00ACB5B8048}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA47FD1-E442-49FB-A427-4E0980D2B972}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1313,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB212DE-92C4-48F1-836F-E4D7EDE103CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904B15A6-E436-486E-97C1-CF17044C97B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1371,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4D0E2D-0EA0-4E50-8CE8-4E6CFCDE9911}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0CCF6A-73A2-4FAF-A3C3-4F44C0719654}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1429,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D265A9D-F0C0-4534-846B-9147383E5440}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B976E6-28F2-4594-8275-3BA32F6E7C3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99729DA2-84F3-4259-813E-14CC7A687583}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9233EAA2-54D8-4934-9DDA-DF12F99FC24F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,7 +1545,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328F0774-64BF-4EC8-B04D-DA078C50F659}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2269D1F1-3C2A-434D-9AC2-7304169CA6AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF0D23E-7DE2-4368-B284-9A6AF4A70CC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4239E412-2B9E-4602-80E1-10138B4EFBE8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5B00A6-4D7B-48F8-A60F-CC5197C138BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF578FF-CEDC-4E0A-81C5-76DA81593572}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2355,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C3B996-3692-47D2-B239-7E1F40AB82A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E78094B-86A3-4703-A3A3-860EBF5CBD9F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2593,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BC6FFA-0D22-4A68-8D7C-7A5D0E73A35D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9CBDD6-6260-4AE8-A2CB-9B23DC35EE5D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369D446C-E8AB-4133-A9DD-8E3D7F64A34D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F5F9A-512E-4718-BF79-0ED75F2A85F6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3069,7 +3069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E9A276-7823-4CFC-B76E-BBC591B09749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA55A35-788E-42F7-AF07-F12F37C13345}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3307,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB57368C-992D-4969-A964-2605670C84E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1920AA-A23D-4027-A468-EEB90701005E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3545,7 +3545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307103F3-878B-40EC-8039-765026249595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA67D59-DD49-4EDC-AB84-A2A6AA166C15}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3783,7 +3783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AFA8EC-30DA-48B5-B927-580DF16446EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22F9F89-45A0-4CE2-969C-8BD75E556751}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4021,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC018F7E-F7AD-4E95-8E62-E03D32864A9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374F6193-F27E-4BAF-A44E-29ACE7D3C816}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4259,7 +4259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B104A3B-89E5-4F8D-BB78-B5391884F37F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAE02F9-793A-4784-85FD-3C8C2F6D4928}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4497,7 +4497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D6D487-C12E-4F9C-8248-FBF376A99E0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B263E86-5BB3-41A1-AA94-F31574840101}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4729,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8472DC8B-BFC5-4B75-A352-11D6C8AD6CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BBDA41-7721-4ED9-8AD6-09128CCE1DF6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4967,7 +4967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD297325-E070-40E9-A758-171A71F75AC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5425D095-E81D-47C0-9225-5912F1CE0F9D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5187,7 +5187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0987DE-D9D6-4571-A7C5-C38B04827691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7213D7-E66D-42F9-AE36-37A0A3FA7214}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5419,7 +5419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D821F431-D727-42F1-8F62-3840B5D667B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184BAB00-61E7-49B7-9F85-5CA7E6682362}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5645,7 +5645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F95F3-ACA3-45CC-9746-DA1FDE7BAA0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237CD2B1-85CC-49A8-BFBE-DD2F6454EE46}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5813,7 +5813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29D9DB-DD7A-44F3-AD66-5A47D588A4E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2069ADA-8385-429C-AC43-855DA245C07C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6051,7 +6051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EDBB12-D7D7-4B7B-BC04-83F4A500D37C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3AC221-3838-438E-AE12-6CBAED0779BF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6289,7 +6289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E6D71A-296D-4EE1-80E5-5CC092C06970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96C1075-7D2C-4D65-8165-237F6D180497}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6527,7 +6527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FE1F94-DA84-4F9F-8B39-ED916EF21139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE87B66-4F6F-492C-82B9-85CF2218D282}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6765,7 +6765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BFC0E2-DF5C-4359-BBE7-22DE91DB382E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CCFB4B-DADD-4639-8229-5F412E5BC8B7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7003,7 +7003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7EFFC0-4F56-443E-AAFB-F647AA27D701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4D5B4F-671D-450B-8DC0-ED0D64AE8153}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7241,7 +7241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F49A07-F9E8-4ABD-B6E5-E59AD73912B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8E0C52-8823-463D-B938-2C9835935A7C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
